--- a/doc/2_外部設計/DB定義書_ふっクラフト.xlsx
+++ b/doc/2_外部設計/DB定義書_ふっクラフト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\2_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469EE463-BBD3-42DE-8E65-5C831343DB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85345C1-8308-489B-82D9-1CFBE6C28386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="login" sheetId="8" r:id="rId8"/>
     <sheet name="closet" sheetId="9" r:id="rId9"/>
     <sheet name="gacha" sheetId="10" r:id="rId10"/>
-    <sheet name="contact" sheetId="11" r:id="rId11"/>
+    <sheet name="inquiry" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="117">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -378,10 +378,6 @@
   </si>
   <si>
     <t>user_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Email</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1140,25 +1136,25 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="121" workbookViewId="0">
+    <sheetView zoomScale="121" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="21.375" customWidth="1"/>
-    <col min="6" max="6" width="58.625" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="6" max="6" width="58.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1172,7 +1168,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1186,19 +1182,19 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1215,7 +1211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -1230,7 +1226,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -1245,7 +1241,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -1260,7 +1256,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -1275,7 +1271,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -1290,7 +1286,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>6</v>
       </c>
@@ -1305,7 +1301,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>7</v>
       </c>
@@ -1320,7 +1316,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>8</v>
       </c>
@@ -1335,7 +1331,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
         <v>9</v>
       </c>
@@ -1350,22 +1346,22 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>49</v>
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
         <v>11</v>
       </c>
@@ -1374,7 +1370,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
         <v>12</v>
       </c>
@@ -1383,7 +1379,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -1392,7 +1388,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -1401,7 +1397,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -1410,7 +1406,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
         <v>16</v>
       </c>
@@ -1419,7 +1415,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
         <v>17</v>
       </c>
@@ -1428,7 +1424,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
         <v>18</v>
       </c>
@@ -1436,7 +1432,7 @@
       <c r="D25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
         <v>19</v>
       </c>
@@ -1445,7 +1441,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
         <v>20</v>
       </c>
@@ -1454,7 +1450,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
         <v>21</v>
       </c>
@@ -1463,7 +1459,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
         <v>22</v>
       </c>
@@ -1472,7 +1468,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
         <v>23</v>
       </c>
@@ -1481,7 +1477,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -1490,7 +1486,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
         <v>25</v>
       </c>
@@ -1499,7 +1495,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
         <v>26</v>
       </c>
@@ -1508,7 +1504,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="3">
         <v>27</v>
       </c>
@@ -1517,7 +1513,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="3">
         <v>28</v>
       </c>
@@ -1526,7 +1522,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="3">
         <v>29</v>
       </c>
@@ -1535,7 +1531,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
         <v>30</v>
       </c>
@@ -1544,7 +1540,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="3">
         <v>31</v>
       </c>
@@ -1568,25 +1564,25 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1597,10 +1593,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1614,7 +1610,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1626,7 +1622,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1638,7 +1634,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1674,26 +1670,26 @@
         <v>create table gacha (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1702,18 +1698,18 @@
         <v>pet_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1726,18 +1722,18 @@
         <v>closet_id int ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12" s="3">
         <v>50</v>
@@ -1752,18 +1748,18 @@
         <v>closet_path varchar (50),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
@@ -1774,24 +1770,24 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1800,7 +1796,7 @@
         <v xml:space="preserve">closet_kind_id int </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -1817,7 +1813,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -1835,7 +1831,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -1853,7 +1849,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -1871,7 +1867,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -1889,7 +1885,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -1907,7 +1903,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -1925,7 +1921,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -1943,7 +1939,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -1961,7 +1957,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -1979,7 +1975,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -1997,7 +1993,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2015,7 +2011,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2033,7 +2029,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2051,7 +2047,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2069,7 +2065,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>21</v>
       </c>
@@ -2087,7 +2083,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L31" t="s">
         <v>20</v>
       </c>
@@ -2102,29 +2098,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9E1319-5AD0-4F86-9A1B-FB6BD3B80AEC}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="109" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2138,7 +2134,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2152,31 +2148,31 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2212,7 +2208,7 @@
         <v>create table inquiry (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -2223,17 +2219,17 @@
         <v>60</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -2242,7 +2238,7 @@
         <v>user_name varchar (20),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2250,10 +2246,10 @@
         <v>54</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="3">
         <v>50</v>
@@ -2261,7 +2257,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2270,18 +2266,18 @@
         <v>email varchar (50),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
@@ -2289,7 +2285,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2298,7 +2294,7 @@
         <v>inquiry_content varchar (200)</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -2316,7 +2312,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2334,7 +2330,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2352,7 +2348,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2370,7 +2366,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2388,7 +2384,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2406,7 +2402,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2424,7 +2420,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2442,7 +2438,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2460,7 +2456,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2478,7 +2474,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2496,7 +2492,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2514,7 +2510,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2532,7 +2528,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2550,7 +2546,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2568,7 +2564,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2586,7 +2582,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2604,7 +2600,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -2619,29 +2615,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2655,7 +2651,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2669,7 +2665,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2681,7 +2677,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -2693,7 +2689,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2729,7 +2725,7 @@
         <v>create table user (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -2740,17 +2736,17 @@
         <v>60</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -2759,7 +2755,7 @@
         <v>user_name varchar (20),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2770,7 +2766,7 @@
         <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="3">
         <v>100</v>
@@ -2778,7 +2774,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2787,7 +2783,7 @@
         <v>password varchar (100),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -2795,10 +2791,10 @@
         <v>54</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12" s="3">
         <v>50</v>
@@ -2806,16 +2802,16 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>Email varchar (50),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+        <v>email varchar (50),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -2823,10 +2819,10 @@
         <v>55</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
@@ -2834,7 +2830,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2843,7 +2839,7 @@
         <v>pet_name varchar (20),</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2851,16 +2847,16 @@
         <v>56</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I14" s="3">
         <v>1</v>
@@ -2871,7 +2867,7 @@
         <v>pet_id int ,</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2879,10 +2875,10 @@
         <v>57</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2897,7 +2893,7 @@
         <v xml:space="preserve">done_cnt int </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2915,7 +2911,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2933,7 +2929,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2951,7 +2947,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2969,7 +2965,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2987,7 +2983,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3005,7 +3001,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3023,7 +3019,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3041,7 +3037,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3059,7 +3055,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3077,7 +3073,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3095,7 +3091,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3113,7 +3109,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3131,7 +3127,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3149,7 +3145,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -3168,25 +3164,25 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3197,10 +3193,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3214,7 +3210,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3226,7 +3222,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -3238,7 +3234,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3274,7 +3270,7 @@
         <v>create table schedule (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -3285,17 +3281,17 @@
         <v>59</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -3304,18 +3300,18 @@
         <v>user_name varchar (20),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -3323,7 +3319,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3332,18 +3328,18 @@
         <v>schedule_name varchar (20),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -3351,7 +3347,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -3360,18 +3356,18 @@
         <v>start_time varchar (30),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E13" s="3">
         <v>30</v>
@@ -3379,7 +3375,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -3388,24 +3384,24 @@
         <v>finish_time varchar (30),</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I14" s="3">
         <v>1</v>
@@ -3416,18 +3412,18 @@
         <v>color_id int ,</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -3442,7 +3438,7 @@
         <v>content varchar (100)</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3460,7 +3456,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3478,7 +3474,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -3496,7 +3492,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3514,7 +3510,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3532,7 +3528,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3550,7 +3546,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3568,7 +3564,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3586,7 +3582,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3604,7 +3600,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3622,7 +3618,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3640,7 +3636,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3658,7 +3654,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3676,7 +3672,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3694,7 +3690,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -3713,25 +3709,25 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3742,10 +3738,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3759,7 +3755,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3771,7 +3767,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -3783,7 +3779,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3819,7 +3815,7 @@
         <v>create table coin (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -3830,17 +3826,17 @@
         <v>59</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -3849,18 +3845,18 @@
         <v>user_name varchar (20),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3875,7 +3871,7 @@
         <v xml:space="preserve">coin_cnt int </v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -3893,7 +3889,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -3911,7 +3907,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -3929,7 +3925,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -3947,7 +3943,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3965,7 +3961,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3983,7 +3979,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -4001,7 +3997,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -4019,7 +4015,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -4037,7 +4033,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -4055,7 +4051,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -4073,7 +4069,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -4091,7 +4087,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -4109,7 +4105,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -4127,7 +4123,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -4145,7 +4141,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -4163,7 +4159,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -4181,7 +4177,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -4199,7 +4195,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -4218,25 +4214,25 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4247,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4264,7 +4260,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -4276,7 +4272,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -4288,7 +4284,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4324,26 +4320,26 @@
         <v>create table pet (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
@@ -4354,24 +4350,24 @@
         <v>pet_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
@@ -4382,18 +4378,18 @@
         <v>pet_img_id int ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12" s="3">
         <v>50</v>
@@ -4401,7 +4397,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -4410,7 +4406,7 @@
         <v>pet_img_path varchar (50)</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -4428,7 +4424,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -4446,7 +4442,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -4464,7 +4460,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -4482,7 +4478,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -4500,7 +4496,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -4518,7 +4514,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -4536,7 +4532,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -4554,7 +4550,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -4572,7 +4568,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -4590,7 +4586,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -4608,7 +4604,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -4626,7 +4622,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -4644,7 +4640,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -4662,7 +4658,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -4680,7 +4676,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -4698,7 +4694,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -4716,7 +4712,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -4735,25 +4731,25 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4764,10 +4760,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4781,7 +4777,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -4793,7 +4789,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -4805,7 +4801,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4841,26 +4837,26 @@
         <v>create table message (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4869,18 +4865,18 @@
         <v>pet_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -4893,18 +4889,18 @@
         <v>message_id int ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -4919,7 +4915,7 @@
         <v>message_content varchar (30)</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -4937,7 +4933,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -4955,7 +4951,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -4973,7 +4969,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -4991,7 +4987,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -5009,7 +5005,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -5027,7 +5023,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -5045,7 +5041,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -5063,7 +5059,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -5081,7 +5077,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -5099,7 +5095,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -5117,7 +5113,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -5135,7 +5131,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -5153,7 +5149,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -5171,7 +5167,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -5189,7 +5185,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -5207,7 +5203,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -5225,7 +5221,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -5244,25 +5240,25 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5273,10 +5269,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -5290,19 +5286,19 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -5314,7 +5310,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -5350,26 +5346,26 @@
         <v>create table schedule_color (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
@@ -5380,18 +5376,18 @@
         <v>color_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="3">
         <v>7</v>
@@ -5399,7 +5395,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -5408,7 +5404,7 @@
         <v>color_code varchar (7)</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -5426,7 +5422,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -5444,7 +5440,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -5462,7 +5458,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -5480,7 +5476,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -5498,7 +5494,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -5516,7 +5512,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -5534,7 +5530,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -5552,7 +5548,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -5570,7 +5566,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -5588,7 +5584,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -5606,7 +5602,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -5624,7 +5620,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -5642,7 +5638,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -5660,7 +5656,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -5678,7 +5674,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -5696,7 +5692,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -5714,7 +5710,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -5732,7 +5728,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -5751,25 +5747,25 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5780,10 +5776,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -5797,19 +5793,19 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -5821,7 +5817,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -5857,7 +5853,7 @@
         <v>create table login (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -5868,17 +5864,17 @@
         <v>60</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -5887,18 +5883,18 @@
         <v>user_name varchar (20),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="3">
         <v>30</v>
@@ -5913,18 +5909,18 @@
         <v>login_time varchar (30),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -5937,7 +5933,7 @@
         <v xml:space="preserve">login_days int </v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -5955,7 +5951,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -5973,7 +5969,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -5991,7 +5987,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -6009,7 +6005,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -6027,7 +6023,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -6045,7 +6041,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -6063,7 +6059,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -6081,7 +6077,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -6099,7 +6095,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -6117,7 +6113,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -6135,7 +6131,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -6153,7 +6149,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -6171,7 +6167,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -6189,7 +6185,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -6207,7 +6203,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -6225,7 +6221,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -6243,7 +6239,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -6262,25 +6258,25 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6291,10 +6287,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -6308,7 +6304,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -6320,7 +6316,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -6332,7 +6328,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -6368,7 +6364,7 @@
         <v>create table closet (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -6379,17 +6375,17 @@
         <v>60</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -6398,18 +6394,18 @@
         <v>user_name varchar (20),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -6422,24 +6418,24 @@
         <v>closet_img_id int ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -6448,7 +6444,7 @@
         <v xml:space="preserve">closet_kind_id int </v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -6466,7 +6462,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -6484,7 +6480,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -6502,7 +6498,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -6520,7 +6516,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -6538,7 +6534,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -6556,7 +6552,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -6574,7 +6570,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -6592,7 +6588,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -6610,7 +6606,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -6628,7 +6624,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -6646,7 +6642,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -6664,7 +6660,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -6682,7 +6678,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -6700,7 +6696,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -6718,7 +6714,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -6736,7 +6732,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -6754,7 +6750,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>20</v>
       </c>

--- a/doc/2_外部設計/DB定義書_ふっクラフト.xlsx
+++ b/doc/2_外部設計/DB定義書_ふっクラフト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\2_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85345C1-8308-489B-82D9-1CFBE6C28386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E24879F-194A-4426-AF8A-A144FED52C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="inquiry" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="119">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -682,6 +683,20 @@
   </si>
   <si>
     <t>inquiry_content</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お問い合わせID</t>
+    <rPh sb="1" eb="2">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inquiry_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -715,7 +730,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -725,6 +740,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,7 +792,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -793,6 +814,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -811,9 +838,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -851,9 +878,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -886,26 +913,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -938,26 +948,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2096,10 +2089,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9E1319-5AD0-4F86-9A1B-FB6BD3B80AEC}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2208,62 +2201,56 @@
         <v>create table inquiry (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+    <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
         <v>1</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="3">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="B10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
+      <c r="G10" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_name varchar (20),</v>
-      </c>
+      <c r="H10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>104</v>
       </c>
       <c r="E11" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>email varchar (50),</v>
+        <v>user_name varchar (20),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2271,16 +2258,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>104</v>
       </c>
       <c r="E12" s="3">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2291,25 +2278,35 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>inquiry_content varchar (200)</v>
+        <v>email varchar (50),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="7">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="3">
+        <v>200</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>inquiry_content varchar (200)</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2344,12 +2341,12 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="7">
         <v>7</v>
       </c>
       <c r="B16" s="3"/>
@@ -2362,7 +2359,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2403,7 +2400,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="7">
         <v>10</v>
       </c>
       <c r="B19" s="3"/>
@@ -2457,7 +2454,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="7">
         <v>13</v>
       </c>
       <c r="B22" s="3"/>
@@ -2511,7 +2508,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25" s="7">
         <v>16</v>
       </c>
       <c r="B25" s="3"/>
@@ -2565,7 +2562,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="A28" s="7">
         <v>19</v>
       </c>
       <c r="B28" s="3"/>
@@ -2601,7 +2598,25 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
+      <c r="A30" s="3">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L31" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2615,7 +2630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+    <sheetView zoomScale="110" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/doc/2_外部設計/DB定義書_ふっクラフト.xlsx
+++ b/doc/2_外部設計/DB定義書_ふっクラフト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\2_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC05412-47E4-4E67-A78F-947B54087BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6F34B8-04A6-4B5C-A749-C110C22BD851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="125">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -202,13 +202,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コイン情報</t>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ペット情報</t>
     <rPh sb="3" eb="5">
       <t>ジョウホウ</t>
@@ -233,13 +226,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン情報</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>クローゼット情報</t>
     <rPh sb="6" eb="8">
       <t>ジョウホウ</t>
@@ -265,10 +251,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>coin</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>pet</t>
   </si>
   <si>
@@ -287,10 +269,6 @@
   </si>
   <si>
     <t>schedule_color</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>login</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -457,13 +435,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン日時</t>
-    <rPh sb="4" eb="6">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン日数</t>
     <rPh sb="4" eb="6">
       <t>ニッスウ</t>
@@ -761,6 +732,16 @@
   </si>
   <si>
     <t>boolean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終ログイン日</t>
+    <rPh sb="0" eb="2">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -895,7 +876,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1239,10 +1220,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="121" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1264,13 +1245,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1324,10 +1305,10 @@
         <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -1339,76 +1320,76 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>29</v>
@@ -1417,58 +1398,46 @@
         <v>42</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1477,7 +1446,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1486,7 +1455,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1495,7 +1464,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1504,7 +1473,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1513,16 +1482,15 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1531,15 +1499,16 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1548,7 +1517,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1557,7 +1526,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1566,7 +1535,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1575,7 +1544,7 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1584,7 +1553,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1593,7 +1562,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1602,7 +1571,7 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1611,7 +1580,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" s="3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1620,7 +1589,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" s="3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1629,30 +1598,12 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B36" s="3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B37" s="3">
-        <v>30</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B38" s="3">
-        <v>31</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1665,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1692,13 +1643,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -1732,7 +1683,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1780,23 +1731,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1810,13 +1761,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E11" s="3">
         <v>100</v>
@@ -1824,7 +1775,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1838,13 +1789,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E12" s="3">
         <v>50</v>
@@ -1852,7 +1803,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1866,13 +1817,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
@@ -1880,7 +1831,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1894,19 +1845,19 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I14" s="3">
         <v>1</v>
@@ -1922,13 +1873,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1948,17 +1899,15 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="3">
-        <v>30</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -1966,7 +1915,7 @@
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>login_time varchar (30),</v>
+        <v>login_time date ,</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
@@ -1974,13 +1923,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1998,13 +1947,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2232,8 +2181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB683A14-422C-4253-BD91-38AAB3775539}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2259,13 +2208,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -2299,7 +2248,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2347,23 +2296,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -2377,13 +2326,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -2391,7 +2340,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2405,19 +2354,19 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2431,19 +2380,19 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2453,19 +2402,19 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -2475,19 +2424,19 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -2501,19 +2450,19 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -2529,13 +2478,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -2836,7 +2785,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2844,13 +2793,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -2872,7 +2821,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2884,7 +2833,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2932,21 +2881,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
@@ -2962,13 +2911,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E11" s="3">
         <v>200</v>
@@ -2976,11 +2925,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3327,7 +3276,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3335,13 +3284,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -3363,7 +3312,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3375,7 +3324,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3423,21 +3372,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -3451,13 +3400,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3475,13 +3424,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -3836,7 +3785,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3844,13 +3793,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -3872,7 +3821,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3884,7 +3833,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3932,21 +3881,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
@@ -3962,13 +3911,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E11" s="3">
         <v>7</v>
@@ -3976,7 +3925,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3990,13 +3939,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E12" s="3">
         <v>5</v>
@@ -4351,7 +4300,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -4359,13 +4308,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -4387,7 +4336,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4399,7 +4348,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4447,23 +4396,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4477,23 +4426,23 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -4505,13 +4454,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4531,13 +4480,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4872,7 +4821,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -4880,13 +4829,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -4908,7 +4857,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4920,7 +4869,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4968,21 +4917,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4996,17 +4945,17 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -5022,13 +4971,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
@@ -5048,13 +4997,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
@@ -5070,21 +5019,21 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -5098,19 +5047,19 @@
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -5423,7 +5372,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -5431,13 +5380,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -5459,7 +5408,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -5471,7 +5420,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -5519,23 +5468,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -5545,13 +5494,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -5571,13 +5520,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E12" s="3">
         <v>50</v>
@@ -5585,7 +5534,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -5599,13 +5548,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E13" s="3">
         <v>200</v>
@@ -5613,7 +5562,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>

--- a/doc/2_外部設計/DB定義書_ふっクラフト.xlsx
+++ b/doc/2_外部設計/DB定義書_ふっクラフト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\2_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6F34B8-04A6-4B5C-A749-C110C22BD851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB20EC2-DB09-47E9-99D4-76FA1655D114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,13 +435,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン日数</t>
-    <rPh sb="4" eb="6">
-      <t>ニッスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>login_days</t>
   </si>
   <si>
@@ -741,6 +734,16 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>累計ログイン日数</t>
+    <rPh sb="0" eb="2">
+      <t>ルイケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニッスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1407,10 +1410,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>43</v>
@@ -1617,7 +1620,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1737,17 +1740,17 @@
         <v>54</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1767,7 +1770,7 @@
         <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11" s="3">
         <v>100</v>
@@ -1775,7 +1778,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1792,10 +1795,10 @@
         <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="3">
         <v>50</v>
@@ -1803,7 +1806,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1823,7 +1826,7 @@
         <v>55</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
@@ -1831,7 +1834,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1851,13 +1854,13 @@
         <v>57</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I14" s="3">
         <v>1</v>
@@ -1876,10 +1879,10 @@
         <v>51</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1899,13 +1902,13 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1923,13 +1926,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1950,10 +1953,10 @@
         <v>60</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2302,7 +2305,7 @@
         <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
@@ -2326,13 +2329,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -2354,13 +2357,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2380,13 +2383,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2402,13 +2405,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2424,13 +2427,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2450,13 +2453,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2478,13 +2481,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -2887,15 +2890,15 @@
         <v>56</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
@@ -2917,7 +2920,7 @@
         <v>64</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11" s="3">
         <v>200</v>
@@ -2925,11 +2928,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3378,15 +3381,15 @@
         <v>56</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -3406,7 +3409,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3430,7 +3433,7 @@
         <v>68</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -3785,7 +3788,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3821,7 +3824,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3881,21 +3884,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
@@ -3911,13 +3914,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11" s="3">
         <v>7</v>
@@ -3925,7 +3928,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3939,13 +3942,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="3">
         <v>5</v>
@@ -4314,7 +4317,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -4402,17 +4405,17 @@
         <v>54</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4426,23 +4429,23 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -4454,13 +4457,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4480,13 +4483,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4835,7 +4838,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -4923,15 +4926,15 @@
         <v>57</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4945,17 +4948,17 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -4971,13 +4974,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
@@ -4997,13 +5000,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
@@ -5019,21 +5022,21 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -5047,19 +5050,19 @@
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -5372,7 +5375,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -5408,7 +5411,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -5420,7 +5423,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -5468,23 +5471,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="D10" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -5500,7 +5503,7 @@
         <v>54</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -5523,10 +5526,10 @@
         <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="3">
         <v>50</v>
@@ -5534,7 +5537,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -5548,13 +5551,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="3">
         <v>200</v>
@@ -5562,7 +5565,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>

--- a/doc/2_外部設計/DB定義書_ふっクラフト.xlsx
+++ b/doc/2_外部設計/DB定義書_ふっクラフト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\2_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB20EC2-DB09-47E9-99D4-76FA1655D114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D2EF01-D01D-4AB7-BC13-8968916F45B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23260" yWindow="0" windowWidth="9600" windowHeight="10200" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="127">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -435,9 +435,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>login_days</t>
-  </si>
-  <si>
     <t>スケジュール名</t>
     <rPh sb="6" eb="7">
       <t>メイ</t>
@@ -508,10 +505,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>login_time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>done_cnt</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -745,6 +738,22 @@
     <rPh sb="6" eb="8">
       <t>ニッスウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>last_login_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login_days</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>☆１は１、☆２は２、☆３は３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成沢唯</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1226,7 +1235,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="121" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1275,13 +1284,17 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45090</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
@@ -1332,7 +1345,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>24</v>
@@ -1347,7 +1360,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>26</v>
@@ -1362,7 +1375,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>27</v>
@@ -1377,7 +1390,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>28</v>
@@ -1392,7 +1405,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>29</v>
@@ -1407,13 +1420,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>43</v>
@@ -1422,7 +1435,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1431,7 +1444,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1440,7 +1453,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1449,7 +1462,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1458,7 +1471,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1467,7 +1480,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1476,7 +1489,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1485,7 +1498,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1493,7 +1506,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1502,7 +1515,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1511,7 +1524,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1520,7 +1533,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1529,7 +1542,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1538,7 +1551,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="3">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1547,7 +1560,7 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1556,7 +1569,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1565,7 +1578,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1574,7 +1587,7 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" s="3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1583,7 +1596,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" s="3">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1592,7 +1605,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" s="3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1601,7 +1614,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B36" s="3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1619,8 +1632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1679,7 +1692,9 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="5" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
@@ -1691,7 +1706,9 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45090</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -1740,17 +1757,17 @@
         <v>54</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1770,7 +1787,7 @@
         <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E11" s="3">
         <v>100</v>
@@ -1778,7 +1795,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1795,10 +1812,10 @@
         <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E12" s="3">
         <v>50</v>
@@ -1806,7 +1823,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1826,7 +1843,7 @@
         <v>55</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
@@ -1834,7 +1851,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1854,13 +1871,13 @@
         <v>57</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I14" s="3">
         <v>1</v>
@@ -1879,10 +1896,10 @@
         <v>51</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1902,13 +1919,13 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1918,7 +1935,7 @@
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>login_time date ,</v>
+        <v>last_login_date date ,</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
@@ -1926,13 +1943,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1953,10 +1970,10 @@
         <v>60</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2185,7 +2202,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2244,7 +2261,9 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="5" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
@@ -2256,7 +2275,9 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45090</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -2305,7 +2326,7 @@
         <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
@@ -2329,13 +2350,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -2357,13 +2378,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2383,13 +2404,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2408,10 +2429,10 @@
         <v>108</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2427,13 +2448,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2453,13 +2474,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2481,13 +2502,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -2770,7 +2791,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView zoomScale="117" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2829,7 +2850,9 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="5" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
@@ -2841,7 +2864,9 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45089</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -2890,15 +2915,15 @@
         <v>56</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
@@ -2920,7 +2945,7 @@
         <v>64</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E11" s="3">
         <v>200</v>
@@ -2928,11 +2953,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3261,7 +3286,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="127" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3381,15 +3406,15 @@
         <v>56</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -3409,7 +3434,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3433,7 +3458,7 @@
         <v>68</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -3769,7 +3794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53EA6FC-C324-4F9B-A565-0D7C157FF910}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="131" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -3788,7 +3813,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3824,12 +3849,14 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="5" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
@@ -3841,7 +3868,9 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45090</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -3884,21 +3913,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
@@ -3914,13 +3943,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E11" s="3">
         <v>7</v>
@@ -3928,7 +3957,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3942,16 +3971,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E12" s="3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -3960,7 +3989,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>color_name varchar (5)</v>
+        <v>color_name varchar (20)</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -4284,8 +4313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3E6CD3-5F11-4D75-AA85-63AD6EC463BA}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView zoomScale="101" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4317,7 +4346,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -4344,7 +4373,9 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="5" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
@@ -4356,7 +4387,9 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45089</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -4405,17 +4438,17 @@
         <v>54</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4429,23 +4462,23 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -4457,13 +4490,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4483,13 +4516,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4806,7 +4839,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4838,7 +4871,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -4865,7 +4898,9 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="5" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
@@ -4877,7 +4912,9 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45089</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -4926,15 +4963,15 @@
         <v>57</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4948,17 +4985,17 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -4974,13 +5011,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
@@ -5000,13 +5037,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
@@ -5022,21 +5059,21 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -5050,22 +5087,24 @@
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">rarity int </v>
@@ -5356,8 +5395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9E1319-5AD0-4F86-9A1B-FB6BD3B80AEC}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="109" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="112" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5375,7 +5414,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -5411,24 +5450,28 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="5" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45089</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -5471,23 +5514,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -5503,7 +5546,7 @@
         <v>54</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -5526,10 +5569,10 @@
         <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E12" s="3">
         <v>50</v>
@@ -5537,7 +5580,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -5551,13 +5594,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E13" s="3">
         <v>200</v>
@@ -5565,7 +5608,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>

--- a/doc/2_外部設計/DB定義書_ふっクラフト.xlsx
+++ b/doc/2_外部設計/DB定義書_ふっクラフト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\2_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D2EF01-D01D-4AB7-BC13-8968916F45B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFCC199-F17A-4FFB-8367-E8087EF4A849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23260" yWindow="0" windowWidth="9600" windowHeight="10200" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19320" yWindow="0" windowWidth="13540" windowHeight="10200" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="129">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -333,13 +333,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スケジュール完了数</t>
-    <rPh sb="6" eb="9">
-      <t>カンリョウスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>password</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -754,6 +747,21 @@
   </si>
   <si>
     <t>成沢唯</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュール完了数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペットの画像ID</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pet_img_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1235,7 +1243,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="121" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1423,10 +1431,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>43</v>
@@ -1632,12 +1640,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="B2" zoomScale="96" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="16.25" customWidth="1"/>
@@ -1693,7 +1702,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -1754,20 +1763,20 @@
         <v>46</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1784,10 +1793,10 @@
         <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="3">
         <v>100</v>
@@ -1795,7 +1804,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1812,10 +1821,10 @@
         <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="3">
         <v>50</v>
@@ -1823,7 +1832,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1840,10 +1849,10 @@
         <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
@@ -1851,7 +1860,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1868,16 +1877,16 @@
         <v>50</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I14" s="3">
         <v>1</v>
@@ -1893,13 +1902,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1919,13 +1928,13 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1943,13 +1952,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1967,13 +1976,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2201,8 +2210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB683A14-422C-4253-BD91-38AAB3775539}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+    <sheetView topLeftCell="B1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2234,7 +2243,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -2262,7 +2271,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -2323,20 +2332,20 @@
         <v>46</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -2350,13 +2359,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -2364,7 +2373,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2378,19 +2387,19 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2404,19 +2413,19 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2426,19 +2435,19 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -2448,19 +2457,19 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -2474,19 +2483,19 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -2502,13 +2511,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -2788,10 +2797,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE394B6-3633-46F1-9291-2894933908F0}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="117" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2823,7 +2832,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -2851,7 +2860,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -2909,82 +2918,86 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
       <c r="F10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="e">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="3">
-        <v>200</v>
-      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>pet_img_path varchar (200)</v>
+        <v>86</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="L11" t="e">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>4</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="3">
+        <v>200</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>pet_img_path varchar (200)</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3002,7 +3015,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3014,13 +3027,13 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f t="shared" ref="L14:L28" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3032,13 +3045,13 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3056,7 +3069,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3074,7 +3087,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3092,7 +3105,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3110,7 +3123,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3128,7 +3141,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3146,7 +3159,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3164,7 +3177,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3182,7 +3195,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3200,7 +3213,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3218,7 +3231,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3236,7 +3249,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3254,7 +3267,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3271,7 +3284,25 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L29" t="s">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3286,7 +3317,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="127" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3318,7 +3349,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -3400,21 +3431,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -3428,23 +3457,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>message_id int ,</v>
+        <v>message_id varchar (20),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -3452,13 +3485,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -3794,7 +3827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53EA6FC-C324-4F9B-A565-0D7C157FF910}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="131" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -3813,7 +3846,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3827,7 +3860,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -3849,13 +3882,13 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -3913,21 +3946,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
@@ -3943,13 +3976,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="3">
         <v>7</v>
@@ -3957,7 +3990,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3971,13 +4004,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -4346,7 +4379,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -4374,7 +4407,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -4435,20 +4468,20 @@
         <v>46</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4462,23 +4495,23 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -4490,13 +4523,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4516,13 +4549,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4839,7 +4872,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4871,7 +4904,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -4899,7 +4932,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -4960,18 +4993,16 @@
         <v>50</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4985,17 +5016,17 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -5011,13 +5042,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
@@ -5037,13 +5068,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
@@ -5059,21 +5090,19 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -5087,23 +5116,23 @@
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -5414,7 +5443,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -5450,13 +5479,13 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -5464,7 +5493,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -5514,23 +5543,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="D10" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -5543,10 +5572,10 @@
         <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -5569,10 +5598,10 @@
         <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="3">
         <v>50</v>
@@ -5580,7 +5609,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -5594,13 +5623,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" s="3">
         <v>200</v>
@@ -5608,7 +5637,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>

--- a/doc/2_外部設計/DB定義書_ふっクラフト.xlsx
+++ b/doc/2_外部設計/DB定義書_ふっクラフト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\2_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFCC199-F17A-4FFB-8367-E8087EF4A849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30B7728-CFAF-4617-B907-EE581C7894F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19320" yWindow="0" windowWidth="13540" windowHeight="10200" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="131">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -762,6 +762,17 @@
   </si>
   <si>
     <t>pet_img_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュール名ID</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>schedule_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -868,7 +879,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -897,6 +908,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1640,7 +1654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="96" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="96" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -2208,10 +2222,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB683A14-422C-4253-BD91-38AAB3775539}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2325,44 +2339,36 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="3">
-        <v>20</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="10"/>
       <c r="F10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_name varchar (20),</v>
-      </c>
+      <c r="G10" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>87</v>
@@ -2379,23 +2385,25 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>schedule_name varchar (20),</v>
+        <v>user_name varchar (20),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
@@ -2404,22 +2412,22 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>start_date date ,</v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>schedule_name varchar (20),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2429,19 +2437,23 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>start_date date ,</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2454,16 +2466,16 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2473,23 +2485,19 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>finish_time time ,</v>
-      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2497,62 +2505,70 @@
       <c r="H16" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I16" s="3">
-        <v>1</v>
-      </c>
+      <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>color_id int ,</v>
+        <v>finish_time time ,</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" ref="L17:L31" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v>content varchar (100)</v>
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v>color_id int ,</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="3">
+        <v>100</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f t="shared" ref="L18:L32" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v>content varchar (100)</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2570,7 +2586,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2588,7 +2604,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2606,7 +2622,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2624,7 +2640,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2642,7 +2658,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2660,7 +2676,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2678,7 +2694,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2696,7 +2712,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2714,7 +2730,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2732,7 +2748,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2750,7 +2766,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2768,7 +2784,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2785,7 +2801,25 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L32" t="s">
+      <c r="A32" s="3">
+        <v>22</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="L32" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L33" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3827,7 +3861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53EA6FC-C324-4F9B-A565-0D7C157FF910}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+    <sheetView zoomScale="131" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/doc/2_外部設計/DB定義書_ふっクラフト.xlsx
+++ b/doc/2_外部設計/DB定義書_ふっクラフト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\2_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30B7728-CFAF-4617-B907-EE581C7894F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF17564F-2AA7-4B64-AEAD-6ACF11D965B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="130">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -486,9 +486,6 @@
       <t>ガゾウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>closet_id</t>
   </si>
   <si>
     <t>きせかえ画像パス</t>
@@ -879,7 +876,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -910,9 +907,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -931,9 +925,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -971,9 +965,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1006,26 +1000,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1058,26 +1035,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1260,21 +1220,21 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="21.375" customWidth="1"/>
-    <col min="6" max="6" width="58.625" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="6" max="6" width="58.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1288,7 +1248,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1302,7 +1262,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1310,7 +1270,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1318,7 +1278,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1335,7 +1295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -1350,7 +1310,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -1365,7 +1325,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -1380,7 +1340,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -1395,7 +1355,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -1410,7 +1370,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>6</v>
       </c>
@@ -1425,7 +1385,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>7</v>
       </c>
@@ -1440,22 +1400,22 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
         <v>9</v>
       </c>
@@ -1464,7 +1424,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>10</v>
       </c>
@@ -1473,7 +1433,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
         <v>11</v>
       </c>
@@ -1482,7 +1442,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
         <v>12</v>
       </c>
@@ -1491,7 +1451,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -1500,7 +1460,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -1509,7 +1469,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -1518,7 +1478,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
         <v>16</v>
       </c>
@@ -1526,7 +1486,7 @@
       <c r="D23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
         <v>17</v>
       </c>
@@ -1535,7 +1495,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
         <v>18</v>
       </c>
@@ -1544,7 +1504,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
         <v>19</v>
       </c>
@@ -1553,7 +1513,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
         <v>20</v>
       </c>
@@ -1562,7 +1522,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
         <v>21</v>
       </c>
@@ -1571,7 +1531,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
         <v>22</v>
       </c>
@@ -1580,7 +1540,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
         <v>23</v>
       </c>
@@ -1589,7 +1549,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -1598,7 +1558,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
         <v>25</v>
       </c>
@@ -1607,7 +1567,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
         <v>26</v>
       </c>
@@ -1616,7 +1576,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="3">
         <v>27</v>
       </c>
@@ -1625,7 +1585,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="3">
         <v>28</v>
       </c>
@@ -1634,7 +1594,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="3">
         <v>29</v>
       </c>
@@ -1658,26 +1618,26 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1691,7 +1651,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1705,7 +1665,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1716,10 +1676,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1733,7 +1693,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1769,7 +1729,7 @@
         <v>create table user (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1780,17 +1740,17 @@
         <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1799,7 +1759,7 @@
         <v>user_name varchar (20),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -1810,7 +1770,7 @@
         <v>51</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="3">
         <v>100</v>
@@ -1818,7 +1778,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1827,7 +1787,7 @@
         <v>password varchar (100),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -1835,10 +1795,10 @@
         <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" s="3">
         <v>50</v>
@@ -1846,7 +1806,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1855,7 +1815,7 @@
         <v>email varchar (50),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -1866,7 +1826,7 @@
         <v>54</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
@@ -1874,7 +1834,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1883,7 +1843,7 @@
         <v>pet_name varchar (20),</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -1894,13 +1854,13 @@
         <v>56</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I14" s="3">
         <v>1</v>
@@ -1911,18 +1871,18 @@
         <v>pet_id int ,</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1937,18 +1897,18 @@
         <v>done_cnt int ,</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1961,18 +1921,18 @@
         <v>last_login_date date ,</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1985,7 +1945,7 @@
         <v>login_days int ,</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -1993,10 +1953,10 @@
         <v>59</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2011,7 +1971,7 @@
         <v xml:space="preserve">coin_cnt int </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2029,7 +1989,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2047,7 +2007,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2065,7 +2025,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2083,7 +2043,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2101,7 +2061,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2119,7 +2079,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2137,7 +2097,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2155,7 +2115,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2173,7 +2133,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2191,7 +2151,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2209,7 +2169,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -2224,29 +2184,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB683A14-422C-4253-BD91-38AAB3775539}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="115" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2260,7 +2220,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2274,7 +2234,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2285,10 +2245,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -2302,7 +2262,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2338,29 +2298,29 @@
         <v>create table schedule (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="10"/>
+      <c r="D10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -2371,7 +2331,7 @@
         <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -2388,7 +2348,7 @@
         <v>user_name varchar (20),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -2399,7 +2359,7 @@
         <v>70</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -2416,18 +2376,18 @@
         <v>schedule_name varchar (20),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2442,18 +2402,18 @@
         <v>start_date date ,</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2464,18 +2424,18 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2486,18 +2446,18 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2512,7 +2472,7 @@
         <v>finish_time time ,</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>7</v>
       </c>
@@ -2523,7 +2483,7 @@
         <v>73</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2540,7 +2500,7 @@
         <v>color_id int ,</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>8</v>
       </c>
@@ -2551,7 +2511,7 @@
         <v>75</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="3">
         <v>100</v>
@@ -2566,7 +2526,7 @@
         <v>content varchar (100)</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>9</v>
       </c>
@@ -2584,7 +2544,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>10</v>
       </c>
@@ -2602,7 +2562,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>11</v>
       </c>
@@ -2620,7 +2580,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>12</v>
       </c>
@@ -2638,7 +2598,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>13</v>
       </c>
@@ -2656,7 +2616,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>14</v>
       </c>
@@ -2674,7 +2634,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>15</v>
       </c>
@@ -2692,7 +2652,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>16</v>
       </c>
@@ -2710,7 +2670,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>17</v>
       </c>
@@ -2728,7 +2688,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>18</v>
       </c>
@@ -2746,7 +2706,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>19</v>
       </c>
@@ -2764,7 +2724,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>20</v>
       </c>
@@ -2782,7 +2742,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>21</v>
       </c>
@@ -2800,7 +2760,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>22</v>
       </c>
@@ -2818,7 +2778,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L33" t="s">
         <v>20</v>
       </c>
@@ -2837,25 +2797,25 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2869,7 +2829,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2883,7 +2843,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2894,10 +2854,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -2911,7 +2871,7 @@
         <v>45089</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2947,31 +2907,31 @@
         <v>create table pet (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" s="3">
         <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2982,13 +2942,13 @@
         <v>55</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
@@ -2999,7 +2959,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -3010,7 +2970,7 @@
         <v>63</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
@@ -3018,18 +2978,18 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>pet_img_path varchar (200)</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -3047,7 +3007,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -3065,7 +3025,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -3083,7 +3043,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3101,7 +3061,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3119,7 +3079,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -3137,7 +3097,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3155,7 +3115,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3173,7 +3133,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3191,7 +3151,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3209,7 +3169,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3227,7 +3187,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3245,7 +3205,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3263,7 +3223,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3281,7 +3241,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3299,7 +3259,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3317,7 +3277,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3335,7 +3295,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -3354,25 +3314,25 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3386,7 +3346,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3400,7 +3360,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3412,7 +3372,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -3424,7 +3384,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3460,7 +3420,7 @@
         <v>create table message (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -3471,13 +3431,13 @@
         <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -3486,7 +3446,7 @@
         <v>pet_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -3497,13 +3457,13 @@
         <v>65</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -3514,7 +3474,7 @@
         <v>message_id varchar (20),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -3525,7 +3485,7 @@
         <v>67</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -3540,7 +3500,7 @@
         <v>message_content varchar (30)</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -3558,7 +3518,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -3576,7 +3536,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -3594,7 +3554,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3612,7 +3572,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3630,7 +3590,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -3648,7 +3608,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3666,7 +3626,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3684,7 +3644,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3702,7 +3662,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3720,7 +3680,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3738,7 +3698,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3756,7 +3716,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3774,7 +3734,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3792,7 +3752,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3810,7 +3770,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3828,7 +3788,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3846,7 +3806,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -3865,25 +3825,25 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3897,7 +3857,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3911,7 +3871,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3922,10 +3882,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -3939,7 +3899,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3975,7 +3935,7 @@
         <v>create table schedule_color (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -3983,18 +3943,18 @@
         <v>72</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
@@ -4005,7 +3965,7 @@
         <v>color_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -4016,7 +3976,7 @@
         <v>78</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="3">
         <v>7</v>
@@ -4024,7 +3984,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -4033,18 +3993,18 @@
         <v>color_code varchar (7),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -4059,7 +4019,7 @@
         <v>color_name varchar (20)</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -4077,7 +4037,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -4095,7 +4055,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -4113,7 +4073,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -4131,7 +4091,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -4149,7 +4109,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -4167,7 +4127,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -4185,7 +4145,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -4203,7 +4163,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -4221,7 +4181,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -4239,7 +4199,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -4257,7 +4217,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -4275,7 +4235,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -4293,7 +4253,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -4311,7 +4271,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -4329,7 +4289,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -4347,7 +4307,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -4365,7 +4325,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -4380,29 +4340,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3E6CD3-5F11-4D75-AA85-63AD6EC463BA}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="101" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4416,7 +4376,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4430,7 +4390,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -4441,10 +4401,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -4458,7 +4418,7 @@
         <v>45089</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4494,7 +4454,7 @@
         <v>create table closet (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -4505,17 +4465,15 @@
         <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4524,35 +4482,35 @@
         <v>user_name varchar (20),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>closet_kind_id int ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -4560,49 +4518,51 @@
         <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
+      <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>closet_img_id int ,</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v xml:space="preserve">last_closet boolean </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -4620,7 +4580,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -4638,7 +4598,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -4656,7 +4616,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -4674,7 +4634,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -4692,7 +4652,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -4710,7 +4670,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -4728,7 +4688,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -4746,7 +4706,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -4764,7 +4724,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -4782,7 +4742,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -4800,7 +4760,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -4818,7 +4778,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -4836,7 +4796,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -4854,7 +4814,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -4872,7 +4832,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -4890,7 +4850,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -4906,28 +4866,28 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4941,7 +4901,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4955,7 +4915,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -4966,10 +4926,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -4983,7 +4943,7 @@
         <v>45089</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -5019,7 +4979,7 @@
         <v>create table gacha (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -5030,13 +4990,13 @@
         <v>56</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -5045,7 +5005,7 @@
         <v>pet_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -5053,14 +5013,14 @@
         <v>80</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -5068,21 +5028,21 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>closet_id int ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+        <v>closet_img_id int ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
@@ -5097,18 +5057,18 @@
         <v>closet_path varchar (200),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
@@ -5119,24 +5079,24 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -5145,35 +5105,35 @@
         <v>closet_kind_id int ,</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">rarity int </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -5191,7 +5151,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -5209,7 +5169,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -5227,7 +5187,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -5245,7 +5205,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -5263,7 +5223,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -5281,7 +5241,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -5299,7 +5259,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -5317,7 +5277,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -5335,7 +5295,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -5353,7 +5313,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -5371,7 +5331,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -5389,7 +5349,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -5407,7 +5367,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -5425,7 +5385,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>21</v>
       </c>
@@ -5443,7 +5403,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L31" t="s">
         <v>20</v>
       </c>
@@ -5462,25 +5422,25 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5494,7 +5454,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -5508,26 +5468,26 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -5536,7 +5496,7 @@
         <v>45089</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -5572,33 +5532,33 @@
         <v>create table inquiry (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="D10" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -5609,7 +5569,7 @@
         <v>53</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -5624,7 +5584,7 @@
         <v>user_name varchar (20),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -5632,10 +5592,10 @@
         <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" s="3">
         <v>50</v>
@@ -5643,7 +5603,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -5652,18 +5612,18 @@
         <v>email varchar (50),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" s="3">
         <v>200</v>
@@ -5671,7 +5631,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -5680,7 +5640,7 @@
         <v>inquiry_content varchar (200)</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -5698,7 +5658,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -5716,7 +5676,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>7</v>
       </c>
@@ -5734,7 +5694,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -5752,7 +5712,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -5770,7 +5730,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>10</v>
       </c>
@@ -5788,7 +5748,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -5806,7 +5766,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -5824,7 +5784,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>13</v>
       </c>
@@ -5842,7 +5802,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -5860,7 +5820,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -5878,7 +5838,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>16</v>
       </c>
@@ -5896,7 +5856,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -5914,7 +5874,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -5932,7 +5892,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>19</v>
       </c>
@@ -5950,7 +5910,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -5968,7 +5928,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>21</v>
       </c>
@@ -5986,7 +5946,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L31" t="s">
         <v>20</v>
       </c>

--- a/doc/2_外部設計/DB定義書_ふっクラフト.xlsx
+++ b/doc/2_外部設計/DB定義書_ふっクラフト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\2_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF17564F-2AA7-4B64-AEAD-6ACF11D965B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40F50F3-8FD9-4000-A4E1-1EA137B26ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="closet" sheetId="9" r:id="rId7"/>
     <sheet name="gacha" sheetId="10" r:id="rId8"/>
     <sheet name="inquiry" sheetId="11" r:id="rId9"/>
+    <sheet name="done" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="135">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -770,6 +771,41 @@
   </si>
   <si>
     <t>schedule_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高橋凌人</t>
+    <rPh sb="0" eb="2">
+      <t>タカハシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シノ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュール完了情報</t>
+    <rPh sb="6" eb="10">
+      <t>カンリョウジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュール完了</t>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>schedule_done</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1610,6 +1646,509 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6699ACD-E746-4737-AE03-AB0BCBB2E824}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table done (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>schedule_id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">schedule_done boolean </v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
@@ -2184,8 +2723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB683A14-422C-4253-BD91-38AAB3775539}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4340,7 +4879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3E6CD3-5F11-4D75-AA85-63AD6EC463BA}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+    <sheetView zoomScale="101" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -5419,7 +5958,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B2" sqref="B2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/doc/2_外部設計/DB定義書_ふっクラフト.xlsx
+++ b/doc/2_外部設計/DB定義書_ふっクラフト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\2_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40F50F3-8FD9-4000-A4E1-1EA137B26ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3468A7-3D46-454C-BBEB-6CA784827FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="136">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -806,6 +806,16 @@
   </si>
   <si>
     <t>schedule_done</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュール完了情報</t>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1252,8 +1262,8 @@
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="121" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="121" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1455,9 +1465,15 @@
       <c r="B16" s="3">
         <v>9</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -1650,7 +1666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6699ACD-E746-4737-AE03-AB0BCBB2E824}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>

--- a/doc/2_外部設計/DB定義書_ふっクラフト.xlsx
+++ b/doc/2_外部設計/DB定義書_ふっクラフト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\2_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3468A7-3D46-454C-BBEB-6CA784827FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C98FC2-5062-4F52-8746-D42E007D1922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="136">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1262,7 +1262,7 @@
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="121" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="121" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -1666,8 +1666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6699ACD-E746-4737-AE03-AB0BCBB2E824}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1793,9 +1793,7 @@
       <c r="F10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>

--- a/doc/2_外部設計/DB定義書_ふっクラフト.xlsx
+++ b/doc/2_外部設計/DB定義書_ふっクラフト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\2_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C98FC2-5062-4F52-8746-D42E007D1922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553DBED2-9CF2-48F9-96D5-56805F47623B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="closet" sheetId="9" r:id="rId7"/>
     <sheet name="gacha" sheetId="10" r:id="rId8"/>
     <sheet name="inquiry" sheetId="11" r:id="rId9"/>
-    <sheet name="done" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="133">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -609,22 +608,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>背景/服/帽子/アクセサリー/靴</t>
-    <rPh sb="0" eb="2">
-      <t>ハイケイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ボウシ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>クツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
       <t>カイシビ</t>
@@ -774,30 +757,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>高橋凌人</t>
-    <rPh sb="0" eb="2">
-      <t>タカハシ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シノ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヒト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スケジュール完了情報</t>
-    <rPh sb="6" eb="10">
-      <t>カンリョウジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>done</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スケジュール完了</t>
     <rPh sb="6" eb="8">
       <t>カンリョウ</t>
@@ -809,12 +768,21 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スケジュール完了情報</t>
-    <rPh sb="6" eb="8">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウホウ</t>
+    <t>帽子 1/服 2/靴 3/アクセサリー 4/背景 5</t>
+  </si>
+  <si>
+    <t>帽子 1/服 2/靴 3/アクセサリー 4/背景 5</t>
+    <rPh sb="0" eb="2">
+      <t>ボウシ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>クツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハイケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1263,7 +1231,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="121" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1465,15 +1433,9 @@
       <c r="B16" s="3">
         <v>9</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -1659,507 +1621,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6699ACD-E746-4737-AE03-AB0BCBB2E824}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45099</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table done (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>schedule_id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">schedule_done boolean </v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2168,7 +1629,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2229,7 +1690,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -2429,7 +1890,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>82</v>
@@ -2455,13 +1916,13 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2479,10 +1940,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>87</v>
@@ -2738,7 +2199,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:G10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2798,7 +2259,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -2854,10 +2315,10 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>87</v>
@@ -2934,13 +2395,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2960,13 +2421,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2982,13 +2443,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3004,13 +2465,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -3076,25 +2537,33 @@
       <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" ref="L18:L32" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
-        <v>content varchar (100)</v>
+        <v>content varchar (100),</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>9</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="I19" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">schedule_done boolean </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -3407,7 +2876,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -3465,10 +2934,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>86</v>
@@ -3535,7 +3004,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -4435,7 +3904,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -4554,7 +4023,7 @@
         <v>101</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>86</v>
@@ -4894,7 +4363,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="101" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4907,7 +4376,7 @@
     <col min="7" max="7" width="7.26953125" customWidth="1"/>
     <col min="8" max="8" width="9.453125" customWidth="1"/>
     <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="10" max="10" width="35.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
@@ -4954,7 +4423,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -5056,7 +4525,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -5074,9 +4543,11 @@
         <v>94</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
       <c r="F12" s="3" t="s">
         <v>85</v>
       </c>
@@ -5086,7 +4557,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>closet_img_id int ,</v>
+        <v>closet_img_id varchar (20),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -5094,13 +4565,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -5418,8 +4889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842BE95F-2476-4AF8-BC95-6D46207F3502}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5432,7 +4903,7 @@
     <col min="7" max="7" width="7.26953125" customWidth="1"/>
     <col min="8" max="8" width="9.453125" customWidth="1"/>
     <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="10" max="10" width="36.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
@@ -5479,7 +4950,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -5569,19 +5040,23 @@
         <v>94</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
       <c r="F11" s="3" t="s">
         <v>85</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>closet_img_id int ,</v>
+        <v>closet_img_id varchar (20),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -5663,10 +5138,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>87</v>
@@ -5679,7 +5154,7 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -6032,7 +5507,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
